--- a/Asgn3/SpeedupBook.xlsx
+++ b/Asgn3/SpeedupBook.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaric\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jricha23\High_Speed_Programming\Asgn3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DAA242E-AD3E-435D-9886-EB49334863F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F147CD1-968B-4FC8-B6C0-C2841FC53768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB16AE0E-C73E-4977-A45A-7CD331A2B504}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{CB16AE0E-C73E-4977-A45A-7CD331A2B504}"/>
   </bookViews>
   <sheets>
     <sheet name="n = 500" sheetId="1" r:id="rId1"/>
+    <sheet name="n = 1000" sheetId="2" r:id="rId2"/>
+    <sheet name="n = 2000" sheetId="3" r:id="rId3"/>
+    <sheet name="n = 10000" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
   <si>
     <t>N = 500</t>
   </si>
@@ -84,6 +87,15 @@
   </si>
   <si>
     <t>Q3 From Asgn 3</t>
+  </si>
+  <si>
+    <t>N = 1000</t>
+  </si>
+  <si>
+    <t>N = 2000</t>
+  </si>
+  <si>
+    <t>N = 10000</t>
   </si>
 </sst>
 </file>
@@ -166,6 +178,102 @@
     <tableColumn id="5" xr3:uid="{A31FCA65-BE0E-478A-83A4-5007B81C8E34}" name="S(3)"/>
     <tableColumn id="6" xr3:uid="{E7263E1B-D0F4-4518-897F-B0442B649F37}" name="T(4)"/>
     <tableColumn id="7" xr3:uid="{31BD3893-1A95-4B46-B594-65FCC5491ECD}" name="S(4)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{384B566C-E6AF-4BAF-9A1D-73D02E3A3570}" name="Table42" displayName="Table42" ref="D6:J9" totalsRowShown="0">
+  <autoFilter ref="D6:J9" xr:uid="{384B566C-E6AF-4BAF-9A1D-73D02E3A3570}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{08FB9827-C23F-4EA3-A529-8FD316ADFE64}" name="T(1)"/>
+    <tableColumn id="2" xr3:uid="{A11EAEAB-5698-450C-8027-09D2D6F652C1}" name="T(2)"/>
+    <tableColumn id="3" xr3:uid="{2B829656-60AE-4902-A56C-A10268DA0B63}" name="S(2)"/>
+    <tableColumn id="4" xr3:uid="{2AED9B5E-200F-49FF-9590-DDBB97B570CD}" name="T(3)"/>
+    <tableColumn id="5" xr3:uid="{0B61DA93-E52A-44CA-8B55-714A6E772F17}" name="S(3)"/>
+    <tableColumn id="6" xr3:uid="{C6620CD5-D8E1-49C0-A05C-E03A333E8AF0}" name="T(4)"/>
+    <tableColumn id="7" xr3:uid="{BF7D76FC-1294-438D-BF82-70D091DBBF08}" name="S(4)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1046502-90E7-42A4-AD22-2AB170356BB9}" name="Table463" displayName="Table463" ref="D13:J16" totalsRowShown="0">
+  <autoFilter ref="D13:J16" xr:uid="{D1046502-90E7-42A4-AD22-2AB170356BB9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5A814F9C-A9CE-40E6-807D-207C40A8A85E}" name="T(1)"/>
+    <tableColumn id="2" xr3:uid="{390758F7-2AD2-44EC-BB44-3B4427D6987B}" name="T(2)"/>
+    <tableColumn id="3" xr3:uid="{119B1703-ED26-4B21-920A-130DD2066ADB}" name="S(2)"/>
+    <tableColumn id="4" xr3:uid="{7498A074-F437-42C1-93BF-8B891288B260}" name="T(3)"/>
+    <tableColumn id="5" xr3:uid="{9F032B86-64D2-4A2B-80B8-494457AB74D4}" name="S(3)"/>
+    <tableColumn id="6" xr3:uid="{DCE8625B-A3ED-4FAF-9045-4E2BC8362708}" name="T(4)"/>
+    <tableColumn id="7" xr3:uid="{6897A12D-5B20-44F3-A504-D19A2E3C4043}" name="S(4)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{494FFAF7-422F-413D-9582-21F376B6E29F}" name="Table424" displayName="Table424" ref="D6:J9" totalsRowShown="0">
+  <autoFilter ref="D6:J9" xr:uid="{494FFAF7-422F-413D-9582-21F376B6E29F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D69D76FC-8D72-42FB-A441-F3738AD2B561}" name="T(1)"/>
+    <tableColumn id="2" xr3:uid="{F2395B86-BF7E-4900-B6FB-511D859E58B5}" name="T(2)"/>
+    <tableColumn id="3" xr3:uid="{E57D4082-2994-49E4-A9EF-91CBD1B9A91C}" name="S(2)"/>
+    <tableColumn id="4" xr3:uid="{C9196425-B360-47BC-9966-37CC8D900D66}" name="T(3)"/>
+    <tableColumn id="5" xr3:uid="{4FC116C7-CA60-4FC3-8F35-6A655FEC3E68}" name="S(3)"/>
+    <tableColumn id="6" xr3:uid="{2795DF87-60B6-452E-A4C4-63FC5937C932}" name="T(4)"/>
+    <tableColumn id="7" xr3:uid="{8C78FE08-AC21-4B99-AF86-6E1BB1466FF4}" name="S(4)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C82791DC-1236-42D3-B7F3-0D9AA21B4402}" name="Table4637" displayName="Table4637" ref="D13:J16" totalsRowShown="0">
+  <autoFilter ref="D13:J16" xr:uid="{C82791DC-1236-42D3-B7F3-0D9AA21B4402}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C17232C7-22AB-4EC0-919F-50C31EF34B7D}" name="T(1)"/>
+    <tableColumn id="2" xr3:uid="{20DEECC4-EAE0-4E3B-8ABF-4EC7BDCAF419}" name="T(2)"/>
+    <tableColumn id="3" xr3:uid="{51F89CB9-E6F9-4D05-9660-3552D04B37AB}" name="S(2)"/>
+    <tableColumn id="4" xr3:uid="{14120D28-759B-4BA0-8C20-80A08C4EA5CC}" name="T(3)"/>
+    <tableColumn id="5" xr3:uid="{98D31705-AE15-441B-A1B4-1B5698313D59}" name="S(3)"/>
+    <tableColumn id="6" xr3:uid="{F7B0B041-1CF0-44CC-860D-74F5FD0AD3C2}" name="T(4)"/>
+    <tableColumn id="7" xr3:uid="{B3A09412-F84C-40B6-BE28-6839915B0DFE}" name="S(4)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA35EEED-776F-4AFF-ACE7-DDA67BAC2098}" name="Table4248" displayName="Table4248" ref="D6:J9" totalsRowShown="0">
+  <autoFilter ref="D6:J9" xr:uid="{DA35EEED-776F-4AFF-ACE7-DDA67BAC2098}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{84671F93-0B9C-4199-B6B3-00826F749994}" name="T(1)"/>
+    <tableColumn id="2" xr3:uid="{E6B73685-A002-4817-B8B1-A23CC449960A}" name="T(2)"/>
+    <tableColumn id="3" xr3:uid="{3C9AC049-1600-4EA1-8B7D-94CD2609C329}" name="S(2)"/>
+    <tableColumn id="4" xr3:uid="{28199B05-C17A-4AB6-B1B5-D8AAE34BF55A}" name="T(3)"/>
+    <tableColumn id="5" xr3:uid="{5B252030-A5DC-4411-A1F8-0FCBF1D517C3}" name="S(3)"/>
+    <tableColumn id="6" xr3:uid="{D976AC5E-6DC6-4600-868A-DC238FB8EE1B}" name="T(4)"/>
+    <tableColumn id="7" xr3:uid="{5B691753-5959-40A0-903C-9C7688A47072}" name="S(4)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3B482D69-E877-4086-B4A0-03F54C58D975}" name="Table46379" displayName="Table46379" ref="D13:J16" totalsRowShown="0">
+  <autoFilter ref="D13:J16" xr:uid="{3B482D69-E877-4086-B4A0-03F54C58D975}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5EF5719A-9645-4051-8786-6F0E31BAE2A0}" name="T(1)"/>
+    <tableColumn id="2" xr3:uid="{1C6064A7-C7E7-4214-869D-68E9D6DDB1DC}" name="T(2)"/>
+    <tableColumn id="3" xr3:uid="{679D2BA7-1F31-404E-A526-3DCDB6D169F9}" name="S(2)"/>
+    <tableColumn id="4" xr3:uid="{42F681FB-43D9-4947-995D-3A48C3EAAB36}" name="T(3)"/>
+    <tableColumn id="5" xr3:uid="{32BC4ECF-1C61-4DA2-BF76-257050674F5D}" name="S(3)"/>
+    <tableColumn id="6" xr3:uid="{7B667E8E-A7D8-4907-8D7A-E7E208794545}" name="T(4)"/>
+    <tableColumn id="7" xr3:uid="{B2B1C49A-B1C3-4041-AE98-76CFA02AC1FB}" name="S(4)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DE55AB-F82A-422C-9901-47FE097E2F9B}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,4 +734,334 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DDF02C-31BB-464E-A606-9533EA7C3996}">
+  <dimension ref="B2:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C7741-87D1-4928-A6DB-842F20B4B8E5}">
+  <dimension ref="B2:J16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90434867-CCDA-474F-B3D4-84A9569C80DA}">
+  <dimension ref="B2:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Asgn3/SpeedupBook.xlsx
+++ b/Asgn3/SpeedupBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jricha23\High_Speed_Programming\Asgn3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F147CD1-968B-4FC8-B6C0-C2841FC53768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59210425-06E9-41EF-9E88-E141E09989A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{CB16AE0E-C73E-4977-A45A-7CD331A2B504}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB16AE0E-C73E-4977-A45A-7CD331A2B504}"/>
   </bookViews>
   <sheets>
     <sheet name="n = 500" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DE55AB-F82A-422C-9901-47FE097E2F9B}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,11 +740,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DDF02C-31BB-464E-A606-9533EA7C3996}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
@@ -783,16 +791,52 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>4.57E-5</v>
+      </c>
+      <c r="E7">
+        <v>1.2408E-3</v>
+      </c>
+      <c r="G7">
+        <v>6.9950000000000003E-4</v>
+      </c>
+      <c r="I7">
+        <v>1.0127999999999999E-3</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>5.91E-5</v>
+      </c>
+      <c r="E8">
+        <v>1.049E-4</v>
+      </c>
+      <c r="G8">
+        <v>1.4359999999999999E-4</v>
+      </c>
+      <c r="I8">
+        <v>1.8259999999999999E-4</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>3.8939399999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.2430899999999998E-2</v>
+      </c>
+      <c r="G9">
+        <v>6.2675800000000004E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.2861299999999995E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
@@ -838,6 +882,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:L14">
+    <sortCondition ref="L1:L14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -850,11 +897,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C7741-87D1-4928-A6DB-842F20B4B8E5}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
@@ -893,16 +948,52 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>7.36E-5</v>
+      </c>
+      <c r="E7">
+        <v>1.049E-4</v>
+      </c>
+      <c r="G7">
+        <v>1.175E-4</v>
+      </c>
+      <c r="I7">
+        <v>1.216E-4</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="E8">
+        <v>1.706E-4</v>
+      </c>
+      <c r="G8">
+        <v>2.3479999999999999E-4</v>
+      </c>
+      <c r="I8">
+        <v>2.9520000000000002E-4</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>0.1564548</v>
+      </c>
+      <c r="E9">
+        <v>0.25130089999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.25117509999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.25181999999999999</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
@@ -948,6 +1039,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:L14">
+    <sortCondition ref="L1:L14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -961,10 +1055,18 @@
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
@@ -1003,11 +1105,35 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>3.4279999999999998E-4</v>
+      </c>
+      <c r="E7">
+        <v>4.6720000000000003E-4</v>
+      </c>
+      <c r="G7">
+        <v>4.7229999999999999E-4</v>
+      </c>
+      <c r="I7">
+        <v>4.8579999999999999E-4</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>4.2180000000000001E-4</v>
+      </c>
+      <c r="E8">
+        <v>7.0160000000000003E-4</v>
+      </c>
+      <c r="G8">
+        <v>9.4539999999999999E-4</v>
+      </c>
+      <c r="I8">
+        <v>1.2095999999999999E-3</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -1058,6 +1184,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:L14">
+    <sortCondition ref="L1:L14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
